--- a/src/main/java/com/coffee/ImportExcel/excel_ template/Staff.xlsx
+++ b/src/main/java/com/coffee/ImportExcel/excel_ template/Staff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\cafe_application\src\main\java\com\coffee\ImportExcel\excel_ template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53F9CC4-4242-4384-B68F-EBE24E1D7F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63B7303-E64B-4D4B-85EC-51640CDA55C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3984" yWindow="2328" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t xml:space="preserve">Tên </t>
   </si>
   <si>
-    <t>Nguyễn Minh Thuận</t>
-  </si>
-  <si>
     <t>Căng cước</t>
   </si>
   <si>
@@ -54,10 +51,37 @@
     <t>Nam</t>
   </si>
   <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>Thuan@gmail.com</t>
+    <t xml:space="preserve">Hà Nội </t>
+  </si>
+  <si>
+    <t>Tiền Giang</t>
+  </si>
+  <si>
+    <t>Bùi Hồng Bảo</t>
+  </si>
+  <si>
+    <t>Bùi Ngọc Thức</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Phát</t>
+  </si>
+  <si>
+    <t>Trần Hoài Bảo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gò Vấp </t>
+  </si>
+  <si>
+    <t>baobui@gmail.com</t>
+  </si>
+  <si>
+    <t>thucbui@gmail.com</t>
+  </si>
+  <si>
+    <t>jackphat@gmail.com</t>
+  </si>
+  <si>
+    <t>baotran@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -397,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -415,33 +439,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>82203013493</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
         <v>37868</v>
@@ -453,12 +477,84 @@
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
+        <v>82203013494</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>37898</v>
+      </c>
+      <c r="E3">
+        <v>374974098</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4">
+        <v>82203013495</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>37929</v>
+      </c>
+      <c r="E4">
+        <v>374974099</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4">
+        <v>82203013496</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>37959</v>
+      </c>
+      <c r="E5">
+        <v>374974096</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{7694B6DE-DD18-49EA-9864-00C293D44CBD}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{FE28C9D7-2582-40B9-B82C-9149AC12209D}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{AC99B977-45CE-42FF-B8E8-775A8FDD7671}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{FFFC7F42-90B7-446A-A978-CD6F00DB314E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/coffee/ImportExcel/excel_ template/Staff.xlsx
+++ b/src/main/java/com/coffee/ImportExcel/excel_ template/Staff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\cafe_application\src\main\java\com\coffee\ImportExcel\excel_ template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63B7303-E64B-4D4B-85EC-51640CDA55C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36314862-B8D9-421C-A146-D38780C090A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Tên </t>
   </si>
@@ -51,37 +51,13 @@
     <t>Nam</t>
   </si>
   <si>
-    <t xml:space="preserve">Hà Nội </t>
-  </si>
-  <si>
     <t>Tiền Giang</t>
   </si>
   <si>
     <t>Bùi Hồng Bảo</t>
   </si>
   <si>
-    <t>Bùi Ngọc Thức</t>
-  </si>
-  <si>
-    <t>Nguyễn Tiến Phát</t>
-  </si>
-  <si>
-    <t>Trần Hoài Bảo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gò Vấp </t>
-  </si>
-  <si>
     <t>baobui@gmail.com</t>
-  </si>
-  <si>
-    <t>thucbui@gmail.com</t>
-  </si>
-  <si>
-    <t>jackphat@gmail.com</t>
-  </si>
-  <si>
-    <t>baotran@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -421,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -459,7 +435,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4">
         <v>82203013493</v>
@@ -474,87 +450,15 @@
         <v>374974097</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4">
-        <v>82203013494</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>37898</v>
-      </c>
-      <c r="E3">
-        <v>374974098</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4">
-        <v>82203013495</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>37929</v>
-      </c>
-      <c r="E4">
-        <v>374974099</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4">
-        <v>82203013496</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1">
-        <v>37959</v>
-      </c>
-      <c r="E5">
-        <v>374974096</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{7694B6DE-DD18-49EA-9864-00C293D44CBD}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{FE28C9D7-2582-40B9-B82C-9149AC12209D}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{AC99B977-45CE-42FF-B8E8-775A8FDD7671}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{FFFC7F42-90B7-446A-A978-CD6F00DB314E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
